--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,16 +747,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -781,19 +785,22 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -802,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -813,8 +820,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,25 +853,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,10 +1134,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1119,16 +1146,16 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,29 +1184,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,11 +1254,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
@@ -1232,11 +1266,11 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,25 +1304,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1337,8 +1377,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1352,38 +1392,41 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,38 +1542,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1540,38 +1592,41 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1796,11 +1866,11 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1822,38 +1892,41 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,38 +1992,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2068,25 +2155,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,13 +2237,16 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2176,8 +2269,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2194,37 +2287,40 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,8 +2378,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2288,32 +2387,35 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -2321,7 +2423,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2411,8 +2519,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2464,8 +2575,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,32 +2787,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
@@ -2697,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,7 +2892,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2770,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2796,19 +2927,22 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2831,8 +2965,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2843,31 +2977,34 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2888,45 +3025,48 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -2935,10 +3075,13 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,43 +3327,46 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3217,10 +3375,13 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,19 +3597,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1100</v>
       </c>
       <c r="G72" s="3">
         <v>-1100</v>
@@ -3447,22 +3621,22 @@
         <v>-1100</v>
       </c>
       <c r="I72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
       </c>
       <c r="L72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,19 +3797,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
@@ -3635,22 +3821,22 @@
         <v>100</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -3659,10 +3845,13 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,90 +3897,96 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3852,8 +4051,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,38 +4322,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4200,8 +4421,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4212,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,13 +4542,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4359,11 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,16 +4812,19 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4590,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,23 +4924,23 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,16 +754,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -788,22 +792,25 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -812,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -823,8 +830,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -856,25 +866,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,22 +1151,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1149,16 +1176,16 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,29 +1217,29 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,14 +1288,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
@@ -1269,11 +1303,11 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,28 +1341,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1345,13 +1382,16 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1380,8 +1420,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1395,41 +1435,44 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1594,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,41 +1647,44 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1869,11 +1939,11 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1895,41 +1965,44 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2071,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2158,25 +2245,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2330,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2272,8 +2365,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2290,40 +2383,43 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2381,8 +2480,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,26 +2501,26 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
@@ -2426,7 +2528,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2440,31 +2542,34 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2522,8 +2630,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2578,8 +2689,8 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,35 +2913,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
@@ -2826,7 +2952,7 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,7 +3026,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2904,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2930,22 +3061,25 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2968,8 +3102,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2980,34 +3114,37 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3028,10 +3165,13 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,37 +3179,37 @@
         <v>2600</v>
       </c>
       <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3078,10 +3218,13 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,37 +3497,37 @@
         <v>2600</v>
       </c>
       <c r="E66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3378,10 +3536,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,13 +3783,13 @@
         <v>-3100</v>
       </c>
       <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1100</v>
       </c>
       <c r="H72" s="3">
         <v>-1100</v>
@@ -3624,22 +3798,22 @@
         <v>-1100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
       <c r="O72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,22 +3983,25 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>100</v>
@@ -3824,22 +4010,22 @@
         <v>100</v>
       </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -3848,10 +4034,13 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4089,102 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4054,8 +4253,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,41 +4539,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,8 +4627,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4424,8 +4645,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,7 +4784,7 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4592,11 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,19 +5058,22 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4839,19 +5085,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,23 +5179,23 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -769,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -795,20 +802,26 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
@@ -816,28 +829,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,40 +876,40 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,28 +1061,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1060,11 +1099,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1203,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1205,8 +1258,14 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,38 +1273,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1317,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,32 +1355,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,34 +1414,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1385,19 +1458,25 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1423,11 +1502,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1438,47 +1517,53 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1576,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,47 +1694,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1650,47 +1753,53 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1812,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,32 +2063,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,47 +2107,53 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2166,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,47 +2225,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2284,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,28 +2421,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2280,8 +2453,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,22 +2512,28 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2368,11 +2553,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2386,46 +2571,52 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2483,58 +2680,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2545,19 +2748,25 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2571,11 +2780,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2598,8 +2807,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2633,11 +2848,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2692,11 +2913,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,49 +3161,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,16 +3270,18 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3029,22 +3290,22 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,19 +3340,19 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3105,11 +3372,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3117,41 +3384,47 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
@@ -3168,63 +3441,75 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +4115,58 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1100</v>
       </c>
       <c r="J72" s="3">
         <v>-1100</v>
       </c>
       <c r="K72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,105 +4469,117 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4592,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,11 +4653,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,38 +4984,38 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,11 +5071,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4648,11 +5089,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4660,17 +5101,23 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,23 +5228,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4825,11 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,25 +5546,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5088,22 +5579,22 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,26 +5685,26 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -808,31 +812,34 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>-200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -841,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -852,8 +859,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,43 +886,43 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,11 +1096,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1090,8 +1110,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,22 +1241,22 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1238,16 +1265,16 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,41 +1303,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,23 +1389,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
@@ -1379,11 +1413,11 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,37 +1451,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1508,8 +1548,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1523,50 +1563,53 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,50 +1749,53 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1759,50 +1811,53 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,22 +2133,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2087,11 +2157,11 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2113,50 +2183,53 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,50 +2307,53 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2427,25 +2514,25 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,13 +2623,13 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2559,8 +2652,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2589,37 +2685,37 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2686,8 +2785,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2695,44 +2794,47 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -2740,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2768,8 +2873,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2786,8 +2891,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2854,8 +2962,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2919,8 +3030,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,44 +3290,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
@@ -3212,7 +3338,7 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,11 +3412,11 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
@@ -3296,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3305,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3331,31 +3462,34 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3378,8 +3512,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3390,43 +3524,46 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3447,57 +3584,60 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2600</v>
       </c>
       <c r="G60" s="3">
         <v>2600</v>
       </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -3506,10 +3646,13 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,55 +3958,58 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2600</v>
       </c>
       <c r="G66" s="3">
         <v>2600</v>
       </c>
       <c r="H66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -3860,10 +4018,13 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,31 +4292,34 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-3100</v>
       </c>
       <c r="G72" s="3">
         <v>-3100</v>
       </c>
       <c r="H72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1100</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
@@ -4154,22 +4328,22 @@
         <v>-1100</v>
       </c>
       <c r="M72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
       <c r="R72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,31 +4540,34 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
@@ -4390,22 +4576,22 @@
         <v>100</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -4414,10 +4600,13 @@
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,114 +4664,120 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4659,8 +4858,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4990,35 +5207,35 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5077,8 +5298,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5095,8 +5316,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,25 +5461,28 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>100</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5290,11 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,19 +5807,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5585,19 +5831,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5691,23 +5943,23 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -815,34 +819,37 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>-200</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -851,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -862,8 +869,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -877,28 +884,31 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -907,25 +917,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,22 +1271,22 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1268,16 +1295,16 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,41 +1336,41 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,26 +1423,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
@@ -1416,11 +1450,11 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,40 +1488,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1566,53 +1606,56 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,53 +1801,56 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1814,53 +1866,56 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,25 +2203,25 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2160,11 +2230,11 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2186,53 +2256,56 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,53 +2386,56 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2517,25 +2604,25 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2626,13 +2719,13 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2688,37 +2784,37 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2788,8 +2887,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,38 +2908,38 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
@@ -2845,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2876,8 +2981,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2894,8 +2999,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3033,8 +3144,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,38 +3428,38 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
@@ -3341,7 +3467,7 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,23 +3533,24 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
@@ -3430,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3439,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3465,34 +3596,37 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3515,8 +3649,8 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3527,46 +3661,49 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3587,60 +3724,63 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
       </c>
       <c r="H60" s="3">
         <v>2600</v>
       </c>
       <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3649,10 +3789,13 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,58 +4116,61 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2600</v>
       </c>
       <c r="H66" s="3">
         <v>2600</v>
       </c>
       <c r="I66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4021,10 +4179,13 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,34 +4466,37 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3100</v>
       </c>
       <c r="H72" s="3">
         <v>-3100</v>
       </c>
       <c r="I72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1100</v>
       </c>
       <c r="L72" s="3">
         <v>-1100</v>
@@ -4331,22 +4505,22 @@
         <v>-1100</v>
       </c>
       <c r="N72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-200</v>
       </c>
       <c r="P72" s="3">
         <v>-200</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
       <c r="S72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,34 +4726,37 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
@@ -4579,22 +4765,22 @@
         <v>100</v>
       </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -4603,10 +4789,13 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,120 +4856,126 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4861,8 +5060,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5210,35 +5427,35 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5301,8 +5522,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5331,8 +5552,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5691,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>100</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,19 +6056,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5834,19 +6080,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5946,23 +6198,23 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GMVP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>GMVP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,26 +840,26 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>-200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -861,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -872,8 +879,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,20 +908,20 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -920,25 +930,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1122,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1274,22 +1301,22 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1298,16 +1325,16 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1339,41 +1369,41 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,29 +1457,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
@@ -1453,11 +1487,11 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,43 +1525,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1594,8 +1634,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1609,56 +1649,59 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,56 +1853,59 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1869,56 +1921,59 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,28 +2273,28 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2233,11 +2303,11 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2259,56 +2329,59 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,56 +2465,59 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2607,25 +2694,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,16 +2794,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2722,13 +2815,13 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2787,37 +2883,37 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2890,8 +2989,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -2899,50 +2998,53 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
@@ -2950,7 +3052,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2984,8 +3089,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3002,8 +3107,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>81400</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3147,8 +3258,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,50 +3542,53 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>84400</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -3470,7 +3596,7 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,26 +3664,27 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
@@ -3564,7 +3695,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3573,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3652,8 +3786,8 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3664,49 +3798,52 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>28900</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3727,63 +3864,66 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>29300</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
       </c>
       <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -3792,10 +3932,13 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,31 +4002,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,61 +4274,64 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>40300</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2600</v>
       </c>
       <c r="I66" s="3">
         <v>2600</v>
       </c>
       <c r="J66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4182,10 +4340,13 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,37 +4640,40 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3100</v>
       </c>
       <c r="I72" s="3">
         <v>-3100</v>
       </c>
       <c r="J72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1100</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
@@ -4508,22 +4682,22 @@
         <v>-1100</v>
       </c>
       <c r="O72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-200</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
       <c r="T72" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,37 +4912,40 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
@@ -4768,22 +4954,22 @@
         <v>100</v>
       </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -4792,10 +4978,13 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,126 +5048,132 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5063,8 +5262,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5623,16 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5430,35 +5647,35 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5525,8 +5746,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +5921,34 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5756,11 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6287,16 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6059,19 +6305,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6083,19 +6329,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,13 +6423,16 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6201,23 +6453,23 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
